--- a/PastaDocsAdministrativos/Orcamento.xlsx
+++ b/PastaDocsAdministrativos/Orcamento.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\Gitexercicio\3SIPG-ExemploGit-2024\PastaDocsAdministrativos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE4843-1487-4D61-AE44-A5CC8C45090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,42 +18,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Previsão orçamentária - Projeto Exemplo</t>
-  </si>
-  <si>
-    <t>Item de gasto</t>
-  </si>
-  <si>
-    <t>Valor mensal</t>
-  </si>
-  <si>
-    <t>Pessoal</t>
-  </si>
-  <si>
-    <t>Telecom</t>
-  </si>
-  <si>
-    <t>Refeições</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,19 +46,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,17 +66,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E3C620B-02A3-489D-9556-C135250FA490}" name="Table2" displayName="Table2" ref="A3:B6" totalsRowShown="0">
-  <autoFilter ref="A3:B6" xr:uid="{7E3C620B-02A3-489D-9556-C135250FA490}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{85A8855C-A262-42FD-B6D8-DBD6889BFE79}" name="Item de gasto"/>
-    <tableColumn id="2" xr3:uid="{63323487-B908-4411-A19A-66C69B97C09F}" name="Valor mensal" dataCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,66 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>247790</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/PastaDocsAdministrativos/Orcamento.xlsx
+++ b/PastaDocsAdministrativos/Orcamento.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Desktop\Gitexercicio\3SIPG-ExemploGit-2024\PastaDocsAdministrativos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001ADCB-ED74-4764-A88A-E2BE001DAB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Aoooba</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>